--- a/LoG/Assets/Resources/Character_DB.xlsx
+++ b/LoG/Assets/Resources/Character_DB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acas1\Desktop\Team_LoG\LoG_Prototype\GridSader_Prototype\Assets\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acas1\Desktop\Team_LoG\LoG_Prototype\LoG\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B00FA8-4AE4-4065-BFEC-2950CDA86891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7EBDE1F-8E5F-4C6A-95A2-1B3FB41AB825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="3435" windowWidth="18840" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4140" yWindow="2595" windowWidth="18840" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Character_DB" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>ID</t>
   </si>
@@ -94,10 +94,6 @@
   </si>
   <si>
     <t>천상의보호막</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>옹골참</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1050,10 +1046,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1316,29 +1312,6 @@
         <v>122221111</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12">
-        <v>75</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>150</v>
-      </c>
-      <c r="G12">
-        <v>121111122</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LoG/Assets/Resources/Character_DB.xlsx
+++ b/LoG/Assets/Resources/Character_DB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acas1\Desktop\Team_LoG\LoG_Prototype\LoG\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7EBDE1F-8E5F-4C6A-95A2-1B3FB41AB825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1982F70D-781D-40B2-A4DB-662049B26D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4140" yWindow="2595" windowWidth="18840" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -61,10 +61,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>결속</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>무장해제</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -94,6 +90,30 @@
   </si>
   <si>
     <t>천상의보호막</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>축복</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>연막탄</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>생존자</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>저주</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>광역반격</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>길동무</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1046,10 +1066,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1110,22 +1130,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="G3">
-        <v>121212121</v>
+        <v>112112112</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1133,22 +1153,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="G4">
-        <v>211211211</v>
+        <v>212122121</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1159,19 +1179,19 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="G5">
-        <v>112112112</v>
+        <v>211221212</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1182,7 +1202,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D6">
         <v>150</v>
@@ -1191,10 +1211,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="G6">
-        <v>212122121</v>
+        <v>111111111</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1202,22 +1222,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D7">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="G7">
-        <v>212212121</v>
+        <v>221221211</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -1228,19 +1248,19 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D8">
-        <v>200</v>
+        <v>125</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="G8">
-        <v>211221212</v>
+        <v>122221111</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1248,22 +1268,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D9">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="G9">
-        <v>111111111</v>
+        <v>212212121</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1271,10 +1291,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10">
         <v>200</v>
@@ -1283,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="G10">
-        <v>221221211</v>
+        <v>121212121</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1294,22 +1314,137 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="G11">
-        <v>122221111</v>
+        <v>222121121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12">
+        <v>150</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>40</v>
+      </c>
+      <c r="G12">
+        <v>222222111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13">
+        <v>175</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>70</v>
+      </c>
+      <c r="G13">
+        <v>111112222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14">
+        <v>150</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>90</v>
+      </c>
+      <c r="G14">
+        <v>111222222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15">
+        <v>150</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>60</v>
+      </c>
+      <c r="G15">
+        <v>122212222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>350</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>40</v>
+      </c>
+      <c r="G16">
+        <v>211211211</v>
       </c>
     </row>
   </sheetData>

--- a/LoG/Assets/Resources/Character_DB.xlsx
+++ b/LoG/Assets/Resources/Character_DB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acas1\Desktop\Team_LoG\LoG_Prototype\LoG\Assets\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunb\Documents\Github\LoG\LoG\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1982F70D-781D-40B2-A4DB-662049B26D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244CF324-70AC-4487-9595-13F628799166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="2595" windowWidth="18840" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Character_DB" sheetId="1" r:id="rId1"/>
@@ -1069,7 +1069,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1271,19 +1271,19 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="G9">
-        <v>212212121</v>
+        <v>121212121</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1294,19 +1294,19 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="G10">
-        <v>121212121</v>
+        <v>212212121</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
